--- a/xlsx/比较政治学_intext.xlsx
+++ b/xlsx/比较政治学_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="138">
   <si>
     <t>比较政治学</t>
   </si>
@@ -59,7 +59,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E6%B2%BB%E5%AD%B8%E5%9F%BA%E6%9C%AC%E4%B8%BB%E9%A1%8C%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>政治學基本主題列表</t>
+    <t>政治学基本主题列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E6%B2%BB%E7%BB%8F%E6%B5%8E%E5%AD%A6</t>
@@ -119,7 +119,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B0%81%E5%BB%BA%E5%88%B6%E5%BA%A6_(%E6%AD%90%E6%B4%B2)</t>
   </si>
   <si>
-    <t>封建制度 (歐洲)</t>
+    <t>封建制度 (欧洲)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8B%AC%E8%A3%81%E6%94%BF%E4%BD%93</t>
@@ -131,7 +131,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A7%94%E5%93%A1%E6%9C%83%E5%88%B6</t>
   </si>
   <si>
-    <t>委員會制</t>
+    <t>委员会制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B2%BE%E8%8B%B1%E6%94%BF%E6%B2%BB</t>
@@ -239,7 +239,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%8A%9B%E5%88%86%E7%AB%8B</t>
   </si>
   <si>
-    <t>權力分立</t>
+    <t>权力分立</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AB%8B%E6%B3%95%E6%9C%BA%E6%9E%84</t>
@@ -257,7 +257,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8F%B8%E6%B3%95%E6%A9%9F%E6%A7%8B</t>
   </si>
   <si>
-    <t>司法機構</t>
+    <t>司法机构</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%A4%AE%E9%80%89%E4%B8%BE%E5%A7%94%E5%91%98%E4%BC%9A</t>
@@ -281,7 +281,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E6%B2%BB%E5%BF%83%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>政治心理學</t>
+    <t>政治心理学</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Biology_and_political_orientation</t>
@@ -401,7 +401,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AF%94%E8%BC%83%E6%B3%95</t>
   </si>
   <si>
-    <t>比較法</t>
+    <t>比较法</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8E%86%E5%8F%B2%E7%A4%BE%E4%BC%9A%E5%AD%A6</t>
@@ -413,13 +413,10 @@
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E6%B2%BB%E5%AD%B8</t>
   </si>
   <si>
-    <t>政治學</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%B4%E5%90%88%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -431,7 +428,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E7%AB%8B%E5%9C%8B%E6%9C%83%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
   </si>
   <si>
-    <t>國立國會圖書館</t>
+    <t>国立国会图书馆</t>
   </si>
 </sst>
 </file>
@@ -2687,7 +2684,7 @@
         <v>131</v>
       </c>
       <c r="F66" t="s">
-        <v>132</v>
+        <v>3</v>
       </c>
       <c r="G66" t="n">
         <v>5</v>
@@ -2742,10 +2739,10 @@
         <v>67</v>
       </c>
       <c r="E68" t="s">
+        <v>132</v>
+      </c>
+      <c r="F68" t="s">
         <v>133</v>
-      </c>
-      <c r="F68" t="s">
-        <v>134</v>
       </c>
       <c r="G68" t="n">
         <v>3</v>
@@ -2771,10 +2768,10 @@
         <v>68</v>
       </c>
       <c r="E69" t="s">
+        <v>134</v>
+      </c>
+      <c r="F69" t="s">
         <v>135</v>
-      </c>
-      <c r="F69" t="s">
-        <v>136</v>
       </c>
       <c r="G69" t="n">
         <v>1</v>
@@ -2800,10 +2797,10 @@
         <v>69</v>
       </c>
       <c r="E70" t="s">
+        <v>136</v>
+      </c>
+      <c r="F70" t="s">
         <v>137</v>
-      </c>
-      <c r="F70" t="s">
-        <v>138</v>
       </c>
       <c r="G70" t="n">
         <v>1</v>
